--- a/17Large-Scale Paper Displays (i.e. Posters).xlsx
+++ b/17Large-Scale Paper Displays (i.e. Posters).xlsx
@@ -55,43 +55,9 @@
     <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$B$7:$K$7</definedName>
     <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$B$8:$K$8</definedName>
     <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$A$13</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$25:$S$25</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$A$14</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$A$15</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$A$17</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$A$7</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$26:$S$26</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$B$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$B$12:$K$12</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$B$13:$K$13</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$B$14:$K$14</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$B$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$B$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$B$17:$K$17</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$27:$S$27</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$B$1:$K$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$B$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$B$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$B$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$B$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$B$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$B$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$B$8:$K$8</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$B$9:$K$9</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$28:$S$28</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$29:$S$29</definedName>
   </definedNames>
@@ -814,9 +780,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.1571722021878016E-2"/>
-          <c:y val="0.64857186964432911"/>
+          <c:y val="0.11076700880971102"/>
           <c:w val="0.93748587571820086"/>
-          <c:h val="0.16821441750802066"/>
+          <c:h val="0.70601927834263878"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5703,8 +5669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
